--- a/Examples/Dictionary/Calc/Exp92_Excel_empty.xlsx
+++ b/Examples/Dictionary/Calc/Exp92_Excel_empty.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
-  <si>
-    <t>G</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Enter judgments for the paiwise comparisons in the matrix or direct values in the green cells</t>
@@ -25,28 +25,25 @@
     <t>C2</t>
   </si>
   <si>
-    <t>X</t>
+    <t>A1</t>
   </si>
   <si>
     <t>Direct values</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +532,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -545,16 +542,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>4</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -573,7 +570,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="8">
         <f>1/C12</f>
@@ -587,7 +584,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="8">
         <f>1/D12</f>
@@ -604,7 +601,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -614,16 +611,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>4</v>
@@ -631,7 +628,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -642,7 +639,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="8">
         <f>1/C20</f>
@@ -656,7 +653,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" s="8">
         <f>1/D20</f>
@@ -673,7 +670,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -683,16 +680,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>4</v>
@@ -700,7 +697,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -711,7 +708,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="8">
         <f>1/C28</f>
@@ -725,7 +722,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="8">
         <f>1/D28</f>
@@ -739,6 +736,144 @@
         <v>1</v>
       </c>
       <c r="E30" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="8">
+        <f>1/C36</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="8">
+        <f>1/D36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
+        <f>1/D37</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="8">
+        <f>1/C44</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="8">
+        <f>1/D44</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="8">
+        <f>1/D45</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
